--- a/data/pca/factorExposure/factorExposure_2008-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-23.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01998971736205129</v>
+        <v>-0.01843470919628308</v>
       </c>
       <c r="C2">
-        <v>-0.01085890106692869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01262313089467275</v>
+      </c>
+      <c r="D2">
+        <v>-0.01279682900147561</v>
+      </c>
+      <c r="E2">
+        <v>-0.01756154933248447</v>
+      </c>
+      <c r="F2">
+        <v>0.004332007260523985</v>
+      </c>
+      <c r="G2">
+        <v>0.01709747824558324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07994386481959816</v>
+        <v>-0.08309765199429457</v>
       </c>
       <c r="C4">
-        <v>-0.08436640467041438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08727261978496821</v>
+      </c>
+      <c r="D4">
+        <v>0.06074537807887984</v>
+      </c>
+      <c r="E4">
+        <v>-0.03348964386419548</v>
+      </c>
+      <c r="F4">
+        <v>0.02117155366037828</v>
+      </c>
+      <c r="G4">
+        <v>0.02429860795708726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.00454884127560521</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001275546945958748</v>
+      </c>
+      <c r="D5">
+        <v>0.0002853085650454147</v>
+      </c>
+      <c r="E5">
+        <v>0.006270488608518603</v>
+      </c>
+      <c r="F5">
+        <v>0.00269683540341691</v>
+      </c>
+      <c r="G5">
+        <v>-0.005709248261588764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1688793230486688</v>
+        <v>-0.1702911751193427</v>
       </c>
       <c r="C6">
-        <v>0.01719939432856827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.008212288140555694</v>
+      </c>
+      <c r="D6">
+        <v>0.06362717099043015</v>
+      </c>
+      <c r="E6">
+        <v>0.06148394663294968</v>
+      </c>
+      <c r="F6">
+        <v>0.02767151359857237</v>
+      </c>
+      <c r="G6">
+        <v>-0.01234464543392553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0520388342467732</v>
+        <v>-0.05457946267699042</v>
       </c>
       <c r="C7">
-        <v>-0.05803856235349222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0601114581898697</v>
+      </c>
+      <c r="D7">
+        <v>0.06799262281664727</v>
+      </c>
+      <c r="E7">
+        <v>-0.07404192558186032</v>
+      </c>
+      <c r="F7">
+        <v>-0.006807909100310617</v>
+      </c>
+      <c r="G7">
+        <v>0.06752167634536485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04702222363953057</v>
+        <v>-0.04610347788020317</v>
       </c>
       <c r="C8">
-        <v>-0.05343959150657086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05198638813863769</v>
+      </c>
+      <c r="D8">
+        <v>-0.01422104484799643</v>
+      </c>
+      <c r="E8">
+        <v>-0.03468307044361711</v>
+      </c>
+      <c r="F8">
+        <v>-0.01221359342885511</v>
+      </c>
+      <c r="G8">
+        <v>0.002456372659924718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05707100150901936</v>
+        <v>-0.06192606351501658</v>
       </c>
       <c r="C9">
-        <v>-0.09285194534184774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09351495349294038</v>
+      </c>
+      <c r="D9">
+        <v>0.0921417385337433</v>
+      </c>
+      <c r="E9">
+        <v>-0.04914253493190589</v>
+      </c>
+      <c r="F9">
+        <v>0.006087020169235785</v>
+      </c>
+      <c r="G9">
+        <v>2.236444762865515e-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.118342703732244</v>
+        <v>-0.1035143990232708</v>
       </c>
       <c r="C10">
-        <v>0.1462718169542626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1324968225646868</v>
+      </c>
+      <c r="D10">
+        <v>-0.09462285520055116</v>
+      </c>
+      <c r="E10">
+        <v>-0.05671672402883707</v>
+      </c>
+      <c r="F10">
+        <v>-0.02575573149016843</v>
+      </c>
+      <c r="G10">
+        <v>-0.01612237033295871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07822504263097098</v>
+        <v>-0.07558996922072732</v>
       </c>
       <c r="C11">
-        <v>-0.1368252867628943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1359392407214056</v>
+      </c>
+      <c r="D11">
+        <v>0.05215746922628442</v>
+      </c>
+      <c r="E11">
+        <v>-0.06432804919917003</v>
+      </c>
+      <c r="F11">
+        <v>0.001138402966004165</v>
+      </c>
+      <c r="G11">
+        <v>-0.01306023041261615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07912557931099276</v>
+        <v>-0.07516703489520593</v>
       </c>
       <c r="C12">
-        <v>-0.1646272509567611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1609849003771678</v>
+      </c>
+      <c r="D12">
+        <v>0.05732305251166558</v>
+      </c>
+      <c r="E12">
+        <v>-0.06631946361680383</v>
+      </c>
+      <c r="F12">
+        <v>-0.006262608107050904</v>
+      </c>
+      <c r="G12">
+        <v>0.01436097095526391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03847824427570973</v>
+        <v>-0.04086000405631132</v>
       </c>
       <c r="C13">
-        <v>-0.07193731715634794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0748552482604649</v>
+      </c>
+      <c r="D13">
+        <v>0.03828243329266556</v>
+      </c>
+      <c r="E13">
+        <v>-0.07298711683314697</v>
+      </c>
+      <c r="F13">
+        <v>-0.01081312840012433</v>
+      </c>
+      <c r="G13">
+        <v>0.02467427832585915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02096814092587142</v>
+        <v>-0.02321963601984947</v>
       </c>
       <c r="C14">
-        <v>-0.04936672323358568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.05162614613896039</v>
+      </c>
+      <c r="D14">
+        <v>0.04756771047297913</v>
+      </c>
+      <c r="E14">
+        <v>-0.0688719761935505</v>
+      </c>
+      <c r="F14">
+        <v>-0.004856210159350271</v>
+      </c>
+      <c r="G14">
+        <v>-0.01506452139047181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03340486164802128</v>
+        <v>-0.03322890547234809</v>
       </c>
       <c r="C15">
-        <v>-0.06467103328049315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06256655945553567</v>
+      </c>
+      <c r="D15">
+        <v>0.04722101613058342</v>
+      </c>
+      <c r="E15">
+        <v>-0.01694159705070129</v>
+      </c>
+      <c r="F15">
+        <v>-0.020237943055992</v>
+      </c>
+      <c r="G15">
+        <v>0.0149870315494667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0551138904917699</v>
+        <v>-0.05389296779254467</v>
       </c>
       <c r="C16">
-        <v>-0.1580740873282319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1572463208523329</v>
+      </c>
+      <c r="D16">
+        <v>0.05423218601800486</v>
+      </c>
+      <c r="E16">
+        <v>-0.05262312485162355</v>
+      </c>
+      <c r="F16">
+        <v>0.01824961757526562</v>
+      </c>
+      <c r="G16">
+        <v>-0.02242541152102129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007771140890382121</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.0045838042026565</v>
+      </c>
+      <c r="D17">
+        <v>-0.004276597749410755</v>
+      </c>
+      <c r="E17">
+        <v>0.01203600418408167</v>
+      </c>
+      <c r="F17">
+        <v>-0.009665425085557351</v>
+      </c>
+      <c r="G17">
+        <v>-0.006355461959723994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04452729610437588</v>
+        <v>-0.05555119915444599</v>
       </c>
       <c r="C18">
-        <v>-0.05523745639377562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04920193912603753</v>
+      </c>
+      <c r="D18">
+        <v>-0.005617493718494584</v>
+      </c>
+      <c r="E18">
+        <v>0.06069978354387139</v>
+      </c>
+      <c r="F18">
+        <v>0.001509643901526474</v>
+      </c>
+      <c r="G18">
+        <v>-0.01028938826847942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05733914543501901</v>
+        <v>-0.05642674108054697</v>
       </c>
       <c r="C20">
-        <v>-0.1063115003536625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1038063925573755</v>
+      </c>
+      <c r="D20">
+        <v>0.07470135049635106</v>
+      </c>
+      <c r="E20">
+        <v>-0.0559730238246674</v>
+      </c>
+      <c r="F20">
+        <v>-0.004621858804687047</v>
+      </c>
+      <c r="G20">
+        <v>0.0009074378263407198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04244614507838209</v>
+        <v>-0.04434723613209893</v>
       </c>
       <c r="C21">
-        <v>-0.07013312233060064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.0659463128454944</v>
+      </c>
+      <c r="D21">
+        <v>0.02671334530347492</v>
+      </c>
+      <c r="E21">
+        <v>-0.05474035864809427</v>
+      </c>
+      <c r="F21">
+        <v>0.001987632516231375</v>
+      </c>
+      <c r="G21">
+        <v>0.02181091998903894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0444409277413498</v>
+        <v>-0.04481773762375511</v>
       </c>
       <c r="C22">
-        <v>-0.03779144799580995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04041091684487443</v>
+      </c>
+      <c r="D22">
+        <v>-0.09793866778360169</v>
+      </c>
+      <c r="E22">
+        <v>0.05529843895433387</v>
+      </c>
+      <c r="F22">
+        <v>0.1092646218541675</v>
+      </c>
+      <c r="G22">
+        <v>-0.1172283794706809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04445076043753567</v>
+        <v>-0.04482630059948133</v>
       </c>
       <c r="C23">
-        <v>-0.03778506336353044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04040535225729353</v>
+      </c>
+      <c r="D23">
+        <v>-0.09797896136738832</v>
+      </c>
+      <c r="E23">
+        <v>0.05529899098360629</v>
+      </c>
+      <c r="F23">
+        <v>0.1092606562986209</v>
+      </c>
+      <c r="G23">
+        <v>-0.1172951132025833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06450375682365973</v>
+        <v>-0.06302882211012177</v>
       </c>
       <c r="C24">
-        <v>-0.142912171490941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1399433104093478</v>
+      </c>
+      <c r="D24">
+        <v>0.05958954652084437</v>
+      </c>
+      <c r="E24">
+        <v>-0.06153872581209021</v>
+      </c>
+      <c r="F24">
+        <v>0.006188274695305605</v>
+      </c>
+      <c r="G24">
+        <v>-0.001762931836702728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07064340691277431</v>
+        <v>-0.06818980878980339</v>
       </c>
       <c r="C25">
-        <v>-0.1288959968434356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1266575499943494</v>
+      </c>
+      <c r="D25">
+        <v>0.04785470585381953</v>
+      </c>
+      <c r="E25">
+        <v>-0.08039231173162517</v>
+      </c>
+      <c r="F25">
+        <v>-0.0201651920704137</v>
+      </c>
+      <c r="G25">
+        <v>0.02687470711463765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05714810380618408</v>
+        <v>-0.06092683899730765</v>
       </c>
       <c r="C26">
-        <v>-0.07364382640791223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07767445481102771</v>
+      </c>
+      <c r="D26">
+        <v>0.02460673492125583</v>
+      </c>
+      <c r="E26">
+        <v>-0.07699713372819769</v>
+      </c>
+      <c r="F26">
+        <v>-0.01357038992273674</v>
+      </c>
+      <c r="G26">
+        <v>0.01375585912913977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.174299224751174</v>
+        <v>-0.1782577106978352</v>
       </c>
       <c r="C28">
-        <v>0.2242609540789665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2259690039998709</v>
+      </c>
+      <c r="D28">
+        <v>0.002151825190493707</v>
+      </c>
+      <c r="E28">
+        <v>-0.1526837567687103</v>
+      </c>
+      <c r="F28">
+        <v>-0.05761889840779226</v>
+      </c>
+      <c r="G28">
+        <v>0.01123010481670842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02502415768369363</v>
+        <v>-0.02670451348874554</v>
       </c>
       <c r="C29">
-        <v>-0.05512796414240811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05484123296463674</v>
+      </c>
+      <c r="D29">
+        <v>0.01186412683016344</v>
+      </c>
+      <c r="E29">
+        <v>-0.06891785530768606</v>
+      </c>
+      <c r="F29">
+        <v>-0.002636572419283055</v>
+      </c>
+      <c r="G29">
+        <v>-0.01500662010428434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03131194825194071</v>
+        <v>-0.03437653625347625</v>
       </c>
       <c r="C30">
-        <v>-0.06653911448360539</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07211265360016128</v>
+      </c>
+      <c r="D30">
+        <v>0.1344683072080919</v>
+      </c>
+      <c r="E30">
+        <v>-0.0644097117319803</v>
+      </c>
+      <c r="F30">
+        <v>-0.04833925425953109</v>
+      </c>
+      <c r="G30">
+        <v>0.03895682292076071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05383320749906912</v>
+        <v>-0.05276652671713986</v>
       </c>
       <c r="C31">
-        <v>-0.03740401801806875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03964210997686633</v>
+      </c>
+      <c r="D31">
+        <v>0.005004492242798861</v>
+      </c>
+      <c r="E31">
+        <v>-0.01913501726719088</v>
+      </c>
+      <c r="F31">
+        <v>0.04807929101248669</v>
+      </c>
+      <c r="G31">
+        <v>-0.02021478417923711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04254919985475548</v>
+        <v>-0.04599984878127714</v>
       </c>
       <c r="C32">
-        <v>-0.05810954235890481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05631250735612661</v>
+      </c>
+      <c r="D32">
+        <v>0.01533389961940787</v>
+      </c>
+      <c r="E32">
+        <v>-0.002345277266765673</v>
+      </c>
+      <c r="F32">
+        <v>-0.01735034970833184</v>
+      </c>
+      <c r="G32">
+        <v>0.01491067588183852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07674669552747726</v>
+        <v>-0.08084399723158994</v>
       </c>
       <c r="C33">
-        <v>-0.1152095655654914</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.124006136167464</v>
+      </c>
+      <c r="D33">
+        <v>0.07069360756734733</v>
+      </c>
+      <c r="E33">
+        <v>-0.06052170090582398</v>
+      </c>
+      <c r="F33">
+        <v>0.01273370993420745</v>
+      </c>
+      <c r="G33">
+        <v>-0.02764984333853234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05260848947662667</v>
+        <v>-0.05173063401132106</v>
       </c>
       <c r="C34">
-        <v>-0.1326871087068452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1315707939805061</v>
+      </c>
+      <c r="D34">
+        <v>0.08980777637557834</v>
+      </c>
+      <c r="E34">
+        <v>-0.05906089243434751</v>
+      </c>
+      <c r="F34">
+        <v>-0.02327621753667485</v>
+      </c>
+      <c r="G34">
+        <v>-0.03054245536761254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02722077402709062</v>
+        <v>-0.02949641473251106</v>
       </c>
       <c r="C35">
-        <v>-0.02072169102127423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02358019651860934</v>
+      </c>
+      <c r="D35">
+        <v>0.01073760465338655</v>
+      </c>
+      <c r="E35">
+        <v>-0.01997301919222942</v>
+      </c>
+      <c r="F35">
+        <v>-0.01455386285707897</v>
+      </c>
+      <c r="G35">
+        <v>-0.02123348166038365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02540485354667298</v>
+        <v>-0.02779117795555544</v>
       </c>
       <c r="C36">
-        <v>-0.05593790439858744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05446036907764377</v>
+      </c>
+      <c r="D36">
+        <v>0.06034902923106598</v>
+      </c>
+      <c r="E36">
+        <v>0.008626479314705459</v>
+      </c>
+      <c r="F36">
+        <v>-0.02609568307947838</v>
+      </c>
+      <c r="G36">
+        <v>-0.08257374619625697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.000558207809349435</v>
+        <v>-0.004117274822205222</v>
       </c>
       <c r="C37">
-        <v>0.0005898316416789214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007979445359281967</v>
+      </c>
+      <c r="D37">
+        <v>0.002146789479144199</v>
+      </c>
+      <c r="E37">
+        <v>-0.01127618965135622</v>
+      </c>
+      <c r="F37">
+        <v>0.002947209585697341</v>
+      </c>
+      <c r="G37">
+        <v>0.003216354626514223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07921345092403206</v>
+        <v>-0.07442339265047666</v>
       </c>
       <c r="C39">
-        <v>-0.1567976053358832</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1503367397426495</v>
+      </c>
+      <c r="D39">
+        <v>0.02688163423030661</v>
+      </c>
+      <c r="E39">
+        <v>-0.1246625766313105</v>
+      </c>
+      <c r="F39">
+        <v>0.03512170975921262</v>
+      </c>
+      <c r="G39">
+        <v>0.01139010012965412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04934631133954816</v>
+        <v>-0.05227587979565355</v>
       </c>
       <c r="C40">
-        <v>-0.07507875983454336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07968045083093919</v>
+      </c>
+      <c r="D40">
+        <v>0.01144481628011108</v>
+      </c>
+      <c r="E40">
+        <v>-0.03898354441466983</v>
+      </c>
+      <c r="F40">
+        <v>-0.04586590900239459</v>
+      </c>
+      <c r="G40">
+        <v>-0.009501728454004588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02962253532536881</v>
+        <v>-0.02955853491071941</v>
       </c>
       <c r="C41">
-        <v>-0.02422658022140018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02561612395782184</v>
+      </c>
+      <c r="D41">
+        <v>-0.01014995198745218</v>
+      </c>
+      <c r="E41">
+        <v>0.01198864125453849</v>
+      </c>
+      <c r="F41">
+        <v>-0.01015729960074432</v>
+      </c>
+      <c r="G41">
+        <v>-0.001365944384911752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04372718426001075</v>
+        <v>-0.04208140567436768</v>
       </c>
       <c r="C43">
-        <v>-0.04205750626990174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03941444902883216</v>
+      </c>
+      <c r="D43">
+        <v>-0.01253998437311659</v>
+      </c>
+      <c r="E43">
+        <v>-0.01604990116947743</v>
+      </c>
+      <c r="F43">
+        <v>0.02581421123890287</v>
+      </c>
+      <c r="G43">
+        <v>-0.03659297578012437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05645043366530084</v>
+        <v>-0.06038628195407339</v>
       </c>
       <c r="C44">
-        <v>-0.08678990763442432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09004256943325016</v>
+      </c>
+      <c r="D44">
+        <v>0.2988183619598517</v>
+      </c>
+      <c r="E44">
+        <v>-0.07278511520824647</v>
+      </c>
+      <c r="F44">
+        <v>-0.1089895411695709</v>
+      </c>
+      <c r="G44">
+        <v>-0.1295261190264025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004393571316703601</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.001189346942090846</v>
+      </c>
+      <c r="D45">
+        <v>0.0001789775712173766</v>
+      </c>
+      <c r="E45">
+        <v>-0.001201652592529676</v>
+      </c>
+      <c r="F45">
+        <v>0.00522461359714649</v>
+      </c>
+      <c r="G45">
+        <v>0.004425887368908739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02891562132975286</v>
+        <v>-0.02997143384267865</v>
       </c>
       <c r="C46">
-        <v>-0.04383098756735577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04146702480947622</v>
+      </c>
+      <c r="D46">
+        <v>0.004245535897868759</v>
+      </c>
+      <c r="E46">
+        <v>-0.06267487732256508</v>
+      </c>
+      <c r="F46">
+        <v>0.03816296018237793</v>
+      </c>
+      <c r="G46">
+        <v>-0.01783389538423098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05625444954380732</v>
+        <v>-0.05388069196034603</v>
       </c>
       <c r="C47">
-        <v>-0.04353570211918885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.04198269800044739</v>
+      </c>
+      <c r="D47">
+        <v>-0.02934295500313801</v>
+      </c>
+      <c r="E47">
+        <v>0.01428925116519386</v>
+      </c>
+      <c r="F47">
+        <v>0.06131829212741561</v>
+      </c>
+      <c r="G47">
+        <v>-0.03397911193811685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04693973015960801</v>
+        <v>-0.04885487446365344</v>
       </c>
       <c r="C48">
-        <v>-0.07247331974634376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07193257450032915</v>
+      </c>
+      <c r="D48">
+        <v>0.03666476994258794</v>
+      </c>
+      <c r="E48">
+        <v>-0.05871343784459458</v>
+      </c>
+      <c r="F48">
+        <v>0.001029389106473124</v>
+      </c>
+      <c r="G48">
+        <v>0.0357616761411626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.183997904640363</v>
+        <v>-0.1914343600974991</v>
       </c>
       <c r="C49">
-        <v>0.02711062997332525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02389717380143876</v>
+      </c>
+      <c r="D49">
+        <v>0.02821507414230214</v>
+      </c>
+      <c r="E49">
+        <v>0.01694276680256328</v>
+      </c>
+      <c r="F49">
+        <v>-0.04651392590268922</v>
+      </c>
+      <c r="G49">
+        <v>0.07079608645246056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05316450786302628</v>
+        <v>-0.05271543547172287</v>
       </c>
       <c r="C50">
-        <v>-0.03674013131997109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03966800479179169</v>
+      </c>
+      <c r="D50">
+        <v>0.01977181850490388</v>
+      </c>
+      <c r="E50">
+        <v>-0.01020416106315105</v>
+      </c>
+      <c r="F50">
+        <v>0.04272595649758459</v>
+      </c>
+      <c r="G50">
+        <v>-0.007751420825849694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1410873831425446</v>
+        <v>-0.1361541802704768</v>
       </c>
       <c r="C52">
-        <v>-0.03525935212780144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03382277953257431</v>
+      </c>
+      <c r="D52">
+        <v>0.04304051809645554</v>
+      </c>
+      <c r="E52">
+        <v>0.08513219211940196</v>
+      </c>
+      <c r="F52">
+        <v>0.09025535380165492</v>
+      </c>
+      <c r="G52">
+        <v>-0.03791590424533967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1682483736744401</v>
+        <v>-0.1620829784843953</v>
       </c>
       <c r="C53">
-        <v>0.01376565779338985</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01158133398239411</v>
+      </c>
+      <c r="D53">
+        <v>0.07375240010789422</v>
+      </c>
+      <c r="E53">
+        <v>0.1225830038409745</v>
+      </c>
+      <c r="F53">
+        <v>0.1418508642049413</v>
+      </c>
+      <c r="G53">
+        <v>-0.03509412422418539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01084911355272285</v>
+        <v>-0.01302843583546657</v>
       </c>
       <c r="C54">
-        <v>-0.04221150521493343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04232147430865067</v>
+      </c>
+      <c r="D54">
+        <v>0.0200721098316066</v>
+      </c>
+      <c r="E54">
+        <v>-0.03677791032360025</v>
+      </c>
+      <c r="F54">
+        <v>0.007249662244295862</v>
+      </c>
+      <c r="G54">
+        <v>0.001204405758912171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1221670359833166</v>
+        <v>-0.1202721681840815</v>
       </c>
       <c r="C55">
-        <v>-0.01663898996877175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01778581687453296</v>
+      </c>
+      <c r="D55">
+        <v>0.05645009672941382</v>
+      </c>
+      <c r="E55">
+        <v>0.05391316971852761</v>
+      </c>
+      <c r="F55">
+        <v>0.148433535805964</v>
+      </c>
+      <c r="G55">
+        <v>-0.05400089606140487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.180323821739356</v>
+        <v>-0.1755028394070891</v>
       </c>
       <c r="C56">
-        <v>0.008470650236371478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.00998941055318266</v>
+      </c>
+      <c r="D56">
+        <v>0.02175755731723852</v>
+      </c>
+      <c r="E56">
+        <v>0.1522203039540074</v>
+      </c>
+      <c r="F56">
+        <v>0.1460212991793973</v>
+      </c>
+      <c r="G56">
+        <v>-0.01853820808636784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04166055013922357</v>
+        <v>-0.0408390169130686</v>
       </c>
       <c r="C58">
-        <v>-0.09723039329600119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.108051867896439</v>
+      </c>
+      <c r="D58">
+        <v>-0.002832653473711999</v>
+      </c>
+      <c r="E58">
+        <v>-0.03903516939407405</v>
+      </c>
+      <c r="F58">
+        <v>0.02106404457827651</v>
+      </c>
+      <c r="G58">
+        <v>-0.006980256125925492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1847410658606577</v>
+        <v>-0.1913844767406354</v>
       </c>
       <c r="C59">
-        <v>0.162170875435355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1694487401286588</v>
+      </c>
+      <c r="D59">
+        <v>-0.08294700763687149</v>
+      </c>
+      <c r="E59">
+        <v>-0.08031066095841523</v>
+      </c>
+      <c r="F59">
+        <v>0.01481133615311841</v>
+      </c>
+      <c r="G59">
+        <v>0.03343374329418603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2083663008045835</v>
+        <v>-0.2067075799296769</v>
       </c>
       <c r="C60">
-        <v>0.001821431215403439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002007696366602752</v>
+      </c>
+      <c r="D60">
+        <v>-0.07245073352151582</v>
+      </c>
+      <c r="E60">
+        <v>0.135107639623445</v>
+      </c>
+      <c r="F60">
+        <v>0.0515592707572796</v>
+      </c>
+      <c r="G60">
+        <v>0.1192939765390774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06082622529384698</v>
+        <v>-0.05907803910807693</v>
       </c>
       <c r="C61">
-        <v>-0.1323082126213573</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1290488688696765</v>
+      </c>
+      <c r="D61">
+        <v>0.02527972659012414</v>
+      </c>
+      <c r="E61">
+        <v>-0.07381818939333323</v>
+      </c>
+      <c r="F61">
+        <v>0.005413905635180887</v>
+      </c>
+      <c r="G61">
+        <v>0.01793175352324939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1700953731239834</v>
+        <v>-0.1664485253591092</v>
       </c>
       <c r="C62">
-        <v>0.004411561227028299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004415331320727633</v>
+      </c>
+      <c r="D62">
+        <v>0.02542561152930168</v>
+      </c>
+      <c r="E62">
+        <v>0.1315530417893599</v>
+      </c>
+      <c r="F62">
+        <v>0.1326859479853659</v>
+      </c>
+      <c r="G62">
+        <v>-0.02534912809451519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04052225317872928</v>
+        <v>-0.04296542203028776</v>
       </c>
       <c r="C63">
-        <v>-0.08037467820668742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08442759708353836</v>
+      </c>
+      <c r="D63">
+        <v>0.01821892936498137</v>
+      </c>
+      <c r="E63">
+        <v>-0.03947806259139817</v>
+      </c>
+      <c r="F63">
+        <v>-0.01953081915353059</v>
+      </c>
+      <c r="G63">
+        <v>-0.02311463563928027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1129444837411343</v>
+        <v>-0.1103950038032364</v>
       </c>
       <c r="C64">
-        <v>-0.06354214893549523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06521797658563785</v>
+      </c>
+      <c r="D64">
+        <v>0.02737747998819171</v>
+      </c>
+      <c r="E64">
+        <v>0.05289481881069468</v>
+      </c>
+      <c r="F64">
+        <v>0.01245894747739726</v>
+      </c>
+      <c r="G64">
+        <v>0.02302045815730576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1612968264560838</v>
+        <v>-0.1633711893016708</v>
       </c>
       <c r="C65">
-        <v>0.05873060593948639</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04761011365203139</v>
+      </c>
+      <c r="D65">
+        <v>0.0719060258310507</v>
+      </c>
+      <c r="E65">
+        <v>0.004463865602474379</v>
+      </c>
+      <c r="F65">
+        <v>0.04234706188689614</v>
+      </c>
+      <c r="G65">
+        <v>-0.02169278724670154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09564792685470261</v>
+        <v>-0.09110522639584047</v>
       </c>
       <c r="C66">
-        <v>-0.1329624609104783</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1316787743118804</v>
+      </c>
+      <c r="D66">
+        <v>0.02537773916363584</v>
+      </c>
+      <c r="E66">
+        <v>-0.09787315551773798</v>
+      </c>
+      <c r="F66">
+        <v>-0.0176046698691809</v>
+      </c>
+      <c r="G66">
+        <v>-0.008159918361114096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05047338835040165</v>
+        <v>-0.04386294895407586</v>
       </c>
       <c r="C67">
-        <v>-0.08456085918202851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07774203732709119</v>
+      </c>
+      <c r="D67">
+        <v>-0.07040872386265448</v>
+      </c>
+      <c r="E67">
+        <v>0.0312164549920015</v>
+      </c>
+      <c r="F67">
+        <v>0.04783460185713628</v>
+      </c>
+      <c r="G67">
+        <v>-0.05851761224648641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1463164115751509</v>
+        <v>-0.146772676668176</v>
       </c>
       <c r="C68">
-        <v>0.2467450914353255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2434557081865803</v>
+      </c>
+      <c r="D68">
+        <v>0.004410313652269496</v>
+      </c>
+      <c r="E68">
+        <v>-0.1494358780707149</v>
+      </c>
+      <c r="F68">
+        <v>-0.06595146991182786</v>
+      </c>
+      <c r="G68">
+        <v>0.06261922846958241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04005877582939209</v>
+        <v>-0.03822142641244184</v>
       </c>
       <c r="C69">
-        <v>-0.01531876789335116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01801482837543072</v>
+      </c>
+      <c r="D69">
+        <v>-0.009789011992140616</v>
+      </c>
+      <c r="E69">
+        <v>0.05513187902757532</v>
+      </c>
+      <c r="F69">
+        <v>0.038512152814646</v>
+      </c>
+      <c r="G69">
+        <v>-0.05964829709905627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07486445021139393</v>
+        <v>-0.07235707477986353</v>
       </c>
       <c r="C70">
-        <v>-0.09570390151687765</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09733904206895554</v>
+      </c>
+      <c r="D70">
+        <v>-0.5556068483968616</v>
+      </c>
+      <c r="E70">
+        <v>0.1559868812019769</v>
+      </c>
+      <c r="F70">
+        <v>0.2704862040058019</v>
+      </c>
+      <c r="G70">
+        <v>0.5048913285179358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1704034314416466</v>
+        <v>-0.1722443046490192</v>
       </c>
       <c r="C71">
-        <v>0.250081185718149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2481659794202956</v>
+      </c>
+      <c r="D71">
+        <v>-0.004576468125615398</v>
+      </c>
+      <c r="E71">
+        <v>-0.1543637235863641</v>
+      </c>
+      <c r="F71">
+        <v>-0.0761692172409756</v>
+      </c>
+      <c r="G71">
+        <v>0.07227307813576996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1457348764036031</v>
+        <v>-0.1503324623425583</v>
       </c>
       <c r="C72">
-        <v>-0.008080249424896621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.007543877258974396</v>
+      </c>
+      <c r="D72">
+        <v>0.04217934691427466</v>
+      </c>
+      <c r="E72">
+        <v>0.03823462583932827</v>
+      </c>
+      <c r="F72">
+        <v>0.06733560150989285</v>
+      </c>
+      <c r="G72">
+        <v>-0.08597433381374335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1871806448496473</v>
+        <v>-0.1970226649398815</v>
       </c>
       <c r="C73">
-        <v>-0.0179958023928452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0212731391650131</v>
+      </c>
+      <c r="D73">
+        <v>0.02470450033541375</v>
+      </c>
+      <c r="E73">
+        <v>0.09787242309251021</v>
+      </c>
+      <c r="F73">
+        <v>0.03700717222300615</v>
+      </c>
+      <c r="G73">
+        <v>-0.03591222617174481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08730178389341049</v>
+        <v>-0.08629713759254146</v>
       </c>
       <c r="C74">
-        <v>-0.004747127947014721</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01114714736425714</v>
+      </c>
+      <c r="D74">
+        <v>0.06650770294840058</v>
+      </c>
+      <c r="E74">
+        <v>0.09132702286807021</v>
+      </c>
+      <c r="F74">
+        <v>0.0519038072354658</v>
+      </c>
+      <c r="G74">
+        <v>-0.02999118633815786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1218422962885178</v>
+        <v>-0.1143783135644175</v>
       </c>
       <c r="C75">
-        <v>-0.02557268774908397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02608905745134974</v>
+      </c>
+      <c r="D75">
+        <v>0.02346264949447662</v>
+      </c>
+      <c r="E75">
+        <v>0.08472909399572225</v>
+      </c>
+      <c r="F75">
+        <v>0.1199610884185909</v>
+      </c>
+      <c r="G75">
+        <v>-0.07124834924025464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07993686914800201</v>
+        <v>-0.08858988191777986</v>
       </c>
       <c r="C77">
-        <v>-0.1190711637516827</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1235730678876579</v>
+      </c>
+      <c r="D77">
+        <v>0.08047293002805819</v>
+      </c>
+      <c r="E77">
+        <v>-0.1128142595879471</v>
+      </c>
+      <c r="F77">
+        <v>0.05605715439778441</v>
+      </c>
+      <c r="G77">
+        <v>0.1233216125842145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07618361464577587</v>
+        <v>-0.08268405220437819</v>
       </c>
       <c r="C78">
-        <v>-0.1258141408728888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1283776500284505</v>
+      </c>
+      <c r="D78">
+        <v>0.06050882559679494</v>
+      </c>
+      <c r="E78">
+        <v>-0.1086278395488225</v>
+      </c>
+      <c r="F78">
+        <v>0.08018055332681782</v>
+      </c>
+      <c r="G78">
+        <v>-0.004134385082761672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1687045577793039</v>
+        <v>-0.1641886105299713</v>
       </c>
       <c r="C79">
-        <v>-0.02135620716129855</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02093152296666742</v>
+      </c>
+      <c r="D79">
+        <v>0.01385735462076425</v>
+      </c>
+      <c r="E79">
+        <v>0.06903696400046873</v>
+      </c>
+      <c r="F79">
+        <v>0.1043630725218879</v>
+      </c>
+      <c r="G79">
+        <v>-0.04855926024801176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07746286145316607</v>
+        <v>-0.07383754245809895</v>
       </c>
       <c r="C80">
-        <v>-0.08430689323944594</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08016038796591549</v>
+      </c>
+      <c r="D80">
+        <v>-0.001686528991552945</v>
+      </c>
+      <c r="E80">
+        <v>-0.05462561668589951</v>
+      </c>
+      <c r="F80">
+        <v>-0.07967423523829097</v>
+      </c>
+      <c r="G80">
+        <v>-0.03764213361076375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1128718050010341</v>
+        <v>-0.1063850941591376</v>
       </c>
       <c r="C81">
-        <v>0.0119120203871039</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01172828670591679</v>
+      </c>
+      <c r="D81">
+        <v>-0.004047113658308682</v>
+      </c>
+      <c r="E81">
+        <v>0.100112833160043</v>
+      </c>
+      <c r="F81">
+        <v>0.1009253892765333</v>
+      </c>
+      <c r="G81">
+        <v>-0.1023126185813552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.162693553455393</v>
+        <v>-0.1582490765951563</v>
       </c>
       <c r="C82">
-        <v>0.01571145401992398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01392696777185684</v>
+      </c>
+      <c r="D82">
+        <v>0.07965526886572059</v>
+      </c>
+      <c r="E82">
+        <v>0.1466597889742846</v>
+      </c>
+      <c r="F82">
+        <v>0.0604048416356655</v>
+      </c>
+      <c r="G82">
+        <v>-0.04275598693967554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05284504764268808</v>
+        <v>-0.04917538613769761</v>
       </c>
       <c r="C83">
-        <v>-0.06382333719947361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0586609183855201</v>
+      </c>
+      <c r="D83">
+        <v>-0.02927691053198353</v>
+      </c>
+      <c r="E83">
+        <v>-0.008121536020994248</v>
+      </c>
+      <c r="F83">
+        <v>-0.000999901647033912</v>
+      </c>
+      <c r="G83">
+        <v>0.01493320319855366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04567007331838758</v>
+        <v>-0.04479092430755497</v>
       </c>
       <c r="C84">
-        <v>-0.07452144325878461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07307888948973926</v>
+      </c>
+      <c r="D84">
+        <v>-0.0196655849030259</v>
+      </c>
+      <c r="E84">
+        <v>0.008626486282530934</v>
+      </c>
+      <c r="F84">
+        <v>0.02468215252136355</v>
+      </c>
+      <c r="G84">
+        <v>0.0184563357352606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1403402955730815</v>
+        <v>-0.1352514181568344</v>
       </c>
       <c r="C85">
-        <v>-0.007166800214865545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008469425163079318</v>
+      </c>
+      <c r="D85">
+        <v>0.08001997968302761</v>
+      </c>
+      <c r="E85">
+        <v>0.06561498844997961</v>
+      </c>
+      <c r="F85">
+        <v>0.09855690623038865</v>
+      </c>
+      <c r="G85">
+        <v>-0.05888184859830228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0770502789426078</v>
+        <v>-0.07801325691926646</v>
       </c>
       <c r="C86">
-        <v>-0.1611185508319607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1668791076924112</v>
+      </c>
+      <c r="D86">
+        <v>-0.5754757339728021</v>
+      </c>
+      <c r="E86">
+        <v>-0.4576399824167757</v>
+      </c>
+      <c r="F86">
+        <v>0.04110100861483178</v>
+      </c>
+      <c r="G86">
+        <v>-0.5039086770400867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09072276969634301</v>
+        <v>-0.08596735677914723</v>
       </c>
       <c r="C87">
-        <v>-0.1067147634841013</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1039226354566276</v>
+      </c>
+      <c r="D87">
+        <v>0.1162818812661821</v>
+      </c>
+      <c r="E87">
+        <v>-0.09075681979973779</v>
+      </c>
+      <c r="F87">
+        <v>-0.1641462968634481</v>
+      </c>
+      <c r="G87">
+        <v>0.1374719460461122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05936419178726769</v>
+        <v>-0.05869799714883517</v>
       </c>
       <c r="C88">
-        <v>-0.0633024968938346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06392074980413849</v>
+      </c>
+      <c r="D88">
+        <v>0.009996692782126828</v>
+      </c>
+      <c r="E88">
+        <v>0.03087843955608348</v>
+      </c>
+      <c r="F88">
+        <v>0.02804594192657487</v>
+      </c>
+      <c r="G88">
+        <v>0.0001038108562915286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1551282601585452</v>
+        <v>-0.1535650916140762</v>
       </c>
       <c r="C89">
-        <v>0.1959093815793852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2026263172066989</v>
+      </c>
+      <c r="D89">
+        <v>0.008824999088806197</v>
+      </c>
+      <c r="E89">
+        <v>-0.1026836175871437</v>
+      </c>
+      <c r="F89">
+        <v>-0.06495326203505732</v>
+      </c>
+      <c r="G89">
+        <v>0.03757631615848439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1875575472530805</v>
+        <v>-0.1899358592052245</v>
       </c>
       <c r="C90">
-        <v>0.2274650856216049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2288501637910632</v>
+      </c>
+      <c r="D90">
+        <v>-0.005063581874687499</v>
+      </c>
+      <c r="E90">
+        <v>-0.1805981394102918</v>
+      </c>
+      <c r="F90">
+        <v>-0.1224413845517868</v>
+      </c>
+      <c r="G90">
+        <v>0.08064583540855264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.125753509814654</v>
+        <v>-0.1197575838602682</v>
       </c>
       <c r="C91">
-        <v>0.01926368072696442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01888796317037363</v>
+      </c>
+      <c r="D91">
+        <v>-0.0287467041850871</v>
+      </c>
+      <c r="E91">
+        <v>0.1274016172471613</v>
+      </c>
+      <c r="F91">
+        <v>0.1100745331755391</v>
+      </c>
+      <c r="G91">
+        <v>-0.1205563268407294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1780288941887639</v>
+        <v>-0.1788137873670664</v>
       </c>
       <c r="C92">
-        <v>0.254486846268023</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2657691196592316</v>
+      </c>
+      <c r="D92">
+        <v>-0.003491916852443919</v>
+      </c>
+      <c r="E92">
+        <v>-0.2148104889358029</v>
+      </c>
+      <c r="F92">
+        <v>-0.03646634215550387</v>
+      </c>
+      <c r="G92">
+        <v>0.0550198449302791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1812730962823572</v>
+        <v>-0.1874912332413633</v>
       </c>
       <c r="C93">
-        <v>0.2210576362970451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2219519575564144</v>
+      </c>
+      <c r="D93">
+        <v>-0.009734190989315102</v>
+      </c>
+      <c r="E93">
+        <v>-0.120618575146864</v>
+      </c>
+      <c r="F93">
+        <v>0.004286514353287152</v>
+      </c>
+      <c r="G93">
+        <v>0.0513877784984683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1195547807388441</v>
+        <v>-0.1139029241565121</v>
       </c>
       <c r="C94">
-        <v>-0.03208942139573179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03247106177308144</v>
+      </c>
+      <c r="D94">
+        <v>0.0209783949225738</v>
+      </c>
+      <c r="E94">
+        <v>0.07522673787830951</v>
+      </c>
+      <c r="F94">
+        <v>0.1138446736860985</v>
+      </c>
+      <c r="G94">
+        <v>-0.07047064256083495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1185472272605062</v>
+        <v>-0.1177126861940469</v>
       </c>
       <c r="C95">
-        <v>-0.1092766858155252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1195063058420469</v>
+      </c>
+      <c r="D95">
+        <v>0.00193611520197357</v>
+      </c>
+      <c r="E95">
+        <v>-0.08177342002019608</v>
+      </c>
+      <c r="F95">
+        <v>0.003503786681299046</v>
+      </c>
+      <c r="G95">
+        <v>-0.0001158499666048035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1154233486293245</v>
+        <v>-0.1135995560109701</v>
       </c>
       <c r="C96">
-        <v>-0.1239252602117413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1267945128631172</v>
+      </c>
+      <c r="D96">
+        <v>-0.03014225486433063</v>
+      </c>
+      <c r="E96">
+        <v>0.01947107019177464</v>
+      </c>
+      <c r="F96">
+        <v>0.04128268864920136</v>
+      </c>
+      <c r="G96">
+        <v>0.128633788656533</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1993490942251995</v>
+        <v>-0.2033825455418731</v>
       </c>
       <c r="C97">
-        <v>-0.01459813500605501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006249066702758638</v>
+      </c>
+      <c r="D97">
+        <v>-0.212389405952649</v>
+      </c>
+      <c r="E97">
+        <v>0.4626695317682294</v>
+      </c>
+      <c r="F97">
+        <v>-0.6210140825997414</v>
+      </c>
+      <c r="G97">
+        <v>-0.3216296923786044</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1959154042875373</v>
+        <v>-0.2036845770020051</v>
       </c>
       <c r="C98">
-        <v>-0.02378440360936324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02494844336182533</v>
+      </c>
+      <c r="D98">
+        <v>-0.0783070904452032</v>
+      </c>
+      <c r="E98">
+        <v>0.06648764561800258</v>
+      </c>
+      <c r="F98">
+        <v>-0.08674712416753937</v>
+      </c>
+      <c r="G98">
+        <v>0.1373002669417693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.04819543684794738</v>
+        <v>-0.0487267198096607</v>
       </c>
       <c r="C99">
-        <v>-0.0632421830077471</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06274178565749552</v>
+      </c>
+      <c r="D99">
+        <v>0.004794931581394665</v>
+      </c>
+      <c r="E99">
+        <v>-0.02329115173727487</v>
+      </c>
+      <c r="F99">
+        <v>-0.03327266826185452</v>
+      </c>
+      <c r="G99">
+        <v>0.01476912787326096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.09812671391392463</v>
+        <v>-0.09524618253352597</v>
       </c>
       <c r="C100">
-        <v>-0.3195240671097001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.304412071483889</v>
+      </c>
+      <c r="D100">
+        <v>-0.1346924813872395</v>
+      </c>
+      <c r="E100">
+        <v>-0.02813071037997792</v>
+      </c>
+      <c r="F100">
+        <v>-0.4580779340699712</v>
+      </c>
+      <c r="G100">
+        <v>0.3680163547019604</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.024962134901966</v>
+        <v>-0.02664716319095785</v>
       </c>
       <c r="C101">
-        <v>-0.054536785193916</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05420766299602384</v>
+      </c>
+      <c r="D101">
+        <v>0.00729841334304126</v>
+      </c>
+      <c r="E101">
+        <v>-0.06510331630845459</v>
+      </c>
+      <c r="F101">
+        <v>0.0004046733297296126</v>
+      </c>
+      <c r="G101">
+        <v>-0.01214228604113411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
